--- a/data_export.xlsx
+++ b/data_export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Nama</t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t>2024-08-06 06:20:40</t>
+  </si>
+  <si>
+    <t>Adit BSI4</t>
+  </si>
+  <si>
+    <t>ADIT BELI BASO</t>
+  </si>
+  <si>
+    <t>2024-08-07 04:58:11</t>
+  </si>
+  <si>
+    <t>ADIT CEKIDOT</t>
+  </si>
+  <si>
+    <t>BABAYO</t>
+  </si>
+  <si>
+    <t>2024-08-07 05:25:13</t>
   </si>
 </sst>
 </file>
@@ -489,10 +507,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F15" sqref="A1"/>
+      <selection activeCell="F17" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -797,6 +815,46 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_export.xlsx
+++ b/data_export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Nama</t>
   </si>
@@ -35,139 +35,34 @@
     <t>Instansi/Eksternal</t>
   </si>
   <si>
-    <t>Rahmat Hidayat</t>
-  </si>
-  <si>
-    <t>085322462718</t>
-  </si>
-  <si>
-    <t>beli kopi</t>
-  </si>
-  <si>
-    <t>2024-08-03 09:17:48</t>
-  </si>
-  <si>
-    <t>Selesai</t>
-  </si>
-  <si>
-    <t>UAD</t>
+    <t>Aditya Dika</t>
+  </si>
+  <si>
+    <t>085861209132</t>
+  </si>
+  <si>
+    <t>Tamu</t>
+  </si>
+  <si>
+    <t>2024-08-13 13:12:34</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>PWM</t>
   </si>
   <si>
     <t>Amar Al Fatah</t>
   </si>
   <si>
-    <t>zxcxcfv</t>
-  </si>
-  <si>
-    <t>Biro Sistem Informasi</t>
-  </si>
-  <si>
-    <t>ssas</t>
-  </si>
-  <si>
-    <t>anfkasa</t>
-  </si>
-  <si>
-    <t>Proses</t>
-  </si>
-  <si>
-    <t>Asep</t>
-  </si>
-  <si>
-    <t>Asas</t>
+    <t>2024-08-13 13:13:16</t>
   </si>
   <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>AKusan</t>
-  </si>
-  <si>
-    <t>adhi</t>
-  </si>
-  <si>
-    <t>asasda</t>
-  </si>
-  <si>
-    <t>Biro Sumber Daya Manusia</t>
-  </si>
-  <si>
-    <t>Adit</t>
-  </si>
-  <si>
-    <t>ghjgj</t>
-  </si>
-  <si>
-    <t>HAYOLO</t>
-  </si>
-  <si>
-    <t>Adittia Nugraga</t>
-  </si>
-  <si>
-    <t>Aku mau kopi pasta</t>
-  </si>
-  <si>
-    <t>2024-08-03 02:18:36</t>
-  </si>
-  <si>
-    <t>085713667446</t>
-  </si>
-  <si>
-    <t>ADit beli kkopi</t>
-  </si>
-  <si>
-    <t>2024-08-03 03:22:48</t>
-  </si>
-  <si>
-    <t>Beli kaure</t>
-  </si>
-  <si>
-    <t>2024-08-06 04:47:33</t>
-  </si>
-  <si>
-    <t>Amarkhan</t>
-  </si>
-  <si>
-    <t>085322471629</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>2024-08-06 05:00:37</t>
-  </si>
-  <si>
-    <t>AKU BELUM MANID</t>
-  </si>
-  <si>
-    <t>2024-08-06 06:09:57</t>
-  </si>
-  <si>
-    <t>ADITIA</t>
-  </si>
-  <si>
-    <t>2024-08-06 06:19:31</t>
-  </si>
-  <si>
-    <t>2024-08-06 06:20:40</t>
-  </si>
-  <si>
-    <t>Adit BSI4</t>
-  </si>
-  <si>
-    <t>ADIT BELI BASO</t>
-  </si>
-  <si>
-    <t>2024-08-07 04:58:11</t>
-  </si>
-  <si>
-    <t>ADIT CEKIDOT</t>
-  </si>
-  <si>
-    <t>BABAYO</t>
-  </si>
-  <si>
-    <t>2024-08-07 05:25:13</t>
+    <t>Tidak ada</t>
   </si>
 </sst>
 </file>
@@ -507,10 +402,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F17" sqref="A1"/>
+      <selection activeCell="F3" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,296 +458,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
